--- a/rp/Excel/LeftHand_左手.xlsx
+++ b/rp/Excel/LeftHand_左手.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">Int</t>
   </si>
@@ -51,10 +51,25 @@
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">光束拖尾</t>
+    <t xml:space="preserve">单手刀</t>
   </si>
   <si>
-    <t xml:space="preserve">彩虹拖尾</t>
+    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星月魔杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">散弹喷枪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫光剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弓箭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法杖</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -100,6 +115,13 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -146,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +182,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +209,10 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -310,9 +336,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>88442</v>
+        <v>334208</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
@@ -338,12 +366,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>291285</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>88824</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
@@ -365,11 +395,21 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>155702</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -388,11 +428,21 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>304952</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -411,11 +461,21 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>304643</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -434,11 +494,21 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>304949</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -457,11 +527,21 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>304953</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
